--- a/raw-data/5.5 deb data/18.5 alphafold modelling/pdp-hits.xlsx
+++ b/raw-data/5.5 deb data/18.5 alphafold modelling/pdp-hits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\raw-data\5.5 deb data\18.5 alphafold modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E09FF5B-4687-4936-8A94-830387F39072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A21D5F1-F8B8-4508-BD17-1571D1D73463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t xml:space="preserve"> Locus           </t>
   </si>
@@ -201,6 +201,41 @@
   </si>
   <si>
     <t>Pa2471, Pa4121, Pa4122</t>
+  </si>
+  <si>
+    <t>Enoyl-Coa hydratase (x14)</t>
+  </si>
+  <si>
+    <t>Pa5306</t>
+  </si>
+  <si>
+    <t>Siderophore synthesis (x35)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Pa4228 (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pchD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -552,7 +587,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,6 +861,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -837,8 +873,11 @@
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -848,8 +887,9 @@
       <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -857,20 +897,27 @@
         <v>38</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
